--- a/Malzeme_Listesi.xlsx
+++ b/Malzeme_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Disconnect_Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853090F-5FF1-45E6-869D-ED8E6A55D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03EE69-37A5-476D-91E5-D401A9B9B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8590D9A-1B86-4A51-A01F-1E5B1BF2F6DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Disconnect Malzeme Listesi</t>
   </si>
@@ -46,12 +46,18 @@
   <si>
     <t>Link</t>
   </si>
+  <si>
+    <t>https://www.robotistan.com/proskit-9s001-10mm-tup-lehim-teli</t>
+  </si>
+  <si>
+    <t>Proskit 9S001 1.0 mm Tüp Lehim Teli</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +70,15 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -87,14 +102,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,16 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF00E3-FB6D-4D65-AFB2-BBEEADE5A235}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,11 +462,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8F4E9974-7BA7-4E85-B2D8-4804C6C10424}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Malzeme_Listesi.xlsx
+++ b/Malzeme_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Disconnect_Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03EE69-37A5-476D-91E5-D401A9B9B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA9AC42-0143-4996-B565-F62D1FF9815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8590D9A-1B86-4A51-A01F-1E5B1BF2F6DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Disconnect Malzeme Listesi</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Proskit 9S001 1.0 mm Tüp Lehim Teli</t>
+  </si>
+  <si>
+    <t>HC05 Bluetooth-Serial Modül Kartı</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/hc05-bluetooth-serial-modul-karti-hc05-bluetooth-to-serial-port-module-br</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF00E3-FB6D-4D65-AFB2-BBEEADE5A235}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,14 +476,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8F4E9974-7BA7-4E85-B2D8-4804C6C10424}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DE55E3D4-9C1F-4773-BA2B-8BE9DF0FA430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Malzeme_Listesi.xlsx
+++ b/Malzeme_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Disconnect_Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA9AC42-0143-4996-B565-F62D1FF9815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF9A3C-9F76-4041-9EC2-31F80D283A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8590D9A-1B86-4A51-A01F-1E5B1BF2F6DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Disconnect Malzeme Listesi</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>https://www.robotistan.com/hc05-bluetooth-serial-modul-karti-hc05-bluetooth-to-serial-port-module-br</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/l298n-voltaj-regulatorlu-cift-motor-surucu-karti</t>
+  </si>
+  <si>
+    <t>L298N Voltaj Regulatörlü Çift Motor Sürücü Kartı(Kırmızı PCB)</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/l293d-motor-surucu?srsltid=AfAwrE4jM_U2A1sGxnzmDD6lwwfJ1FpT7mU1dCLqWYtRfL1ZNhC5-dagM9E</t>
+  </si>
+  <si>
+    <t>L293D Motor Sürücü</t>
   </si>
 </sst>
 </file>
@@ -135,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}" name="Table1" displayName="Table1" ref="B3:C5" totalsRowShown="0">
-  <autoFilter ref="B3:C5" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}" name="Table1" displayName="Table1" ref="B3:C15" totalsRowShown="0">
+  <autoFilter ref="B3:C15" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EE367C4C-42A4-4C7E-9D5F-DDCD9747F9A0}" name="Malzeme"/>
     <tableColumn id="2" xr3:uid="{8D894E00-53B1-4A31-A063-7AE0257F25D8}" name="Link"/>
@@ -442,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF00E3-FB6D-4D65-AFB2-BBEEADE5A235}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
@@ -484,15 +496,33 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8F4E9974-7BA7-4E85-B2D8-4804C6C10424}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{DE55E3D4-9C1F-4773-BA2B-8BE9DF0FA430}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{5794124B-9ACF-4297-BA70-C6ECEC28ECB7}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{FE8D6185-FA84-4622-8F6E-F20903BFBBC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Malzeme_Listesi.xlsx
+++ b/Malzeme_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Disconnect_Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF9A3C-9F76-4041-9EC2-31F80D283A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90BEEC-9A51-4975-B683-D8EEA0BC6230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8590D9A-1B86-4A51-A01F-1E5B1BF2F6DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Disconnect Malzeme Listesi</t>
   </si>
@@ -69,13 +69,76 @@
   </si>
   <si>
     <t>L293D Motor Sürücü</t>
+  </si>
+  <si>
+    <t>10x15 cm Bakır Plaket - FR2</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/10x15-bakir-plaket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/proskit-lehim-pastasi-8s005</t>
+  </si>
+  <si>
+    <t>Proskit Lehim Pastası 8S005</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/elektromall-aluminyum-lehim-pompasi-mavi-pm-HBC00001OH0I8</t>
+  </si>
+  <si>
+    <t>Elektromall Alüminyum Lehim Pompası (Mavi)</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/l293d-motor-surucu</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/mini-breadboard-beyaz</t>
+  </si>
+  <si>
+    <t>Mini Breadboard - Beyaz</t>
+  </si>
+  <si>
+    <t>JST-XH 2.54mm 6 Pin Tek Damarlı Bağlantı Kablosu 26AWG 20cm</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/jstxh-254mm-6pin-baglanti-kablosu</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/plato-170-yan-keski</t>
+  </si>
+  <si>
+    <t>Plato 170 Yan Keski</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/l293d-motor-surucu-entegresi</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/lehim-sokme-pompasi-zd190</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/l298n-voltaj-regulatorlu-cift-motor-surucu-karti-kirmizi-pcb</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/0-50-mm2-beyaz-tek-damar-montaj-kablosu-10-metre</t>
+  </si>
+  <si>
+    <t>0.50 mm2 Beyaz Tek Damar Montaj Kablosu - 10 Metre</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/mini-breadboard-kirmizi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +165,26 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,10 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -147,11 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}" name="Table1" displayName="Table1" ref="B3:C15" totalsRowShown="0">
-  <autoFilter ref="B3:C15" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}" name="Table1" displayName="Table1" ref="B3:D18" totalsRowShown="0">
+  <autoFilter ref="B3:D18" xr:uid="{1D19C4E9-7D86-4FCF-A871-5F925661667E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EE367C4C-42A4-4C7E-9D5F-DDCD9747F9A0}" name="Malzeme"/>
     <tableColumn id="2" xr3:uid="{8D894E00-53B1-4A31-A063-7AE0257F25D8}" name="Link"/>
+    <tableColumn id="3" xr3:uid="{3B440916-EC75-4E9A-92C6-A02C126E5E59}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -454,33 +532,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF00E3-FB6D-4D65-AFB2-BBEEADE5A235}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="116.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -488,7 +571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -496,7 +580,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -504,25 +589,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8F4E9974-7BA7-4E85-B2D8-4804C6C10424}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{DE55E3D4-9C1F-4773-BA2B-8BE9DF0FA430}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{5794124B-9ACF-4297-BA70-C6ECEC28ECB7}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{FE8D6185-FA84-4622-8F6E-F20903BFBBC8}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{E296D050-0594-4631-AA0E-32277DC58AB4}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{15DE57FF-E706-4345-8CC1-C66691E6C6B5}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{3A1F1D95-6563-4964-9893-4EE7402CFB48}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{4AB530DE-5A2D-473A-AACF-F19ECD2C85E9}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{D2BC74E1-4DE6-45FE-8B6E-2D93F5B4640F}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{93481CDD-8E3D-4669-B0D4-C0C030413C1C}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{43E0CCB5-6135-4D8C-B697-15EB429E5F24}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{CB38C44F-DD22-4DD5-ABE0-094AED7534A2}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{2768B836-6EDF-47BA-80E3-11DF18138998}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{2ABF32C3-49C3-45D5-8BDA-B4A003AF8D4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>